--- a/Python/tests/test_xlsx.xlsx
+++ b/Python/tests/test_xlsx.xlsx
@@ -1,108 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\projects\excel_dool\tests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CDE4E7-6772-42F6-9937-AD2ADA60DBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{56DF2B56-44F2-492D-9EC1-7BFFC949CD3C}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Row 2</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Test45</t>
-  </si>
-  <si>
-    <t>row45</t>
-  </si>
-  <si>
-    <t>re232ef</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>mouse</t>
-  </si>
-  <si>
-    <t>feline</t>
-  </si>
-  <si>
-    <t>puss in boot</t>
-  </si>
-  <si>
-    <t>Test_Table</t>
-  </si>
-  <si>
-    <t>carrot</t>
-  </si>
-  <si>
-    <t>pea</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>peeper</t>
-  </si>
-  <si>
-    <t>not peeper</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,35 +50,97 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A25BA44-65C4-4DB8-86D7-B40D68D2E44E}" name="Table1" displayName="Table1" ref="F5:H8" totalsRowShown="0">
-  <autoFilter ref="F5:H8" xr:uid="{7A25BA44-65C4-4DB8-86D7-B40D68D2E44E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="F5:H8" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="F5:H8"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{07BE52DF-7365-4403-B066-673AB1B9024F}" name="Test_Table"/>
-    <tableColumn id="2" xr3:uid="{92D240AB-52BB-4784-BC1C-C17412A96B37}" name="peeper"/>
-    <tableColumn id="3" xr3:uid="{6F7EB9B2-52D3-4BF5-88ED-A2FA482A60FB}" name="not peeper"/>
+    <tableColumn id="1" name="Test_Table"/>
+    <tableColumn id="2" name="peeper"/>
+    <tableColumn id="3" name="not peeper"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -447,127 +442,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77AB68A-776E-4295-9162-05B59F55F86B}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>cat</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>mouse</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>LINK</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>feline</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>puss in boot</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Row 2</t>
+        </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDFFD1E-EB92-4DD8-8CCF-4EEBD2DFA381}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
+    <col width="12.7109375" customWidth="1" min="6" max="6"/>
+    <col width="9.5703125" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Test45</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>row45</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>re232ef</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Test_Table</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>peeper</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>not peeper</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>carrot</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>pea</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>chicken</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>